--- a/login_credentials.xlsx
+++ b/login_credentials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Employee Name</t>
   </si>
@@ -49,7 +49,13 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Dave</t>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Pradeepa</t>
+  </si>
+  <si>
+    <t>Magin</t>
   </si>
 </sst>
 </file>
@@ -418,7 +424,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -499,10 +505,32 @@
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>107</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>108</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/login_credentials.xlsx
+++ b/login_credentials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Employee Name</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Pradeepa</t>
+  </si>
+  <si>
+    <t>Sridhar</t>
   </si>
   <si>
     <t>Magin</t>
@@ -424,7 +427,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -527,10 +530,21 @@
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>108</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/login_credentials.xlsx
+++ b/login_credentials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Employee Name</t>
   </si>
@@ -40,25 +40,31 @@
     <t>itsupport</t>
   </si>
   <si>
+    <t>Yogesh</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t>Pradeepa</t>
+  </si>
+  <si>
+    <t>Sridhar</t>
+  </si>
+  <si>
+    <t>Saravanan</t>
+  </si>
+  <si>
+    <t>superuser</t>
+  </si>
+  <si>
+    <t>Magin</t>
+  </si>
+  <si>
     <t>Charlie</t>
-  </si>
-  <si>
-    <t>Yogesh</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Mohan</t>
-  </si>
-  <si>
-    <t>Pradeepa</t>
-  </si>
-  <si>
-    <t>Sridhar</t>
-  </si>
-  <si>
-    <t>Magin</t>
   </si>
 </sst>
 </file>
@@ -66,13 +72,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -108,22 +120,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,18 +442,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,103 +464,114 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3">
-        <v>104</v>
+      <c r="B5" s="2">
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>105</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
-        <v>108</v>
+      <c r="B9" s="3">
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3">
-        <v>109</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="2">
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/login_credentials.xlsx
+++ b/login_credentials.xlsx
@@ -1,101 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
-  <si>
-    <t>Employee Name</t>
-  </si>
-  <si>
-    <t>Employee ID</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>itsupport</t>
-  </si>
-  <si>
-    <t>Yogesh</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Mohan</t>
-  </si>
-  <si>
-    <t>Pradeepa</t>
-  </si>
-  <si>
-    <t>Sridhar</t>
-  </si>
-  <si>
-    <t>Saravanan</t>
-  </si>
-  <si>
-    <t>superuser</t>
-  </si>
-  <si>
-    <t>Magin</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,39 +62,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -438,142 +444,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Employee Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Employee ID</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>Frank</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>102</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>Bob</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>itsupport</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Yogesh</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Mohan</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Pradeepa</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Sridhar</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>itsupport</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>Saravanan</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>109</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>superuser</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Magin</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>itsupport</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Charlie</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>employee</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="17.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
